--- a/dependancy matrix.xlsx
+++ b/dependancy matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganda\Documents\GitHub\Software-Engineering-Principles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{537BAA06-E73D-4D46-B0C4-AD4F9A85DB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDD0AF0-F9D2-466F-9992-8582AF05E567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{14741A25-B838-4AA8-B8B4-08AF0D888E43}"/>
+    <workbookView xWindow="4515" yWindow="600" windowWidth="21600" windowHeight="11385" xr2:uid="{14741A25-B838-4AA8-B8B4-08AF0D888E43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>search bar</t>
   </si>
   <si>
-    <t>search page</t>
-  </si>
-  <si>
     <t>comment system</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>no dependancy</t>
+  </si>
+  <si>
+    <t>Log in system</t>
   </si>
 </sst>
 </file>
@@ -130,12 +130,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -143,6 +137,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,19 +520,19 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="8.88671875" style="1" customWidth="1"/>
-    <col min="12" max="15" width="8.88671875" style="1"/>
-    <col min="16" max="16" width="17.109375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="10" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" customWidth="1"/>
+    <col min="12" max="15" width="8.85546875" style="1"/>
+    <col min="16" max="16" width="17.140625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -546,30 +546,30 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="9"/>
+      <c r="K1" s="8"/>
       <c r="O1" s="5"/>
       <c r="P1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -577,106 +577,109 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="F2" s="5"/>
-      <c r="K2" s="9"/>
+      <c r="K2" s="8"/>
       <c r="O2" s="6"/>
       <c r="P2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="3"/>
-      <c r="K3" s="9"/>
-      <c r="O3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="O3" s="7"/>
       <c r="P3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="6"/>
-      <c r="K4" s="9"/>
+      <c r="K4" s="8"/>
       <c r="P4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="3"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
       <c r="G7" s="3"/>
       <c r="H7" s="5"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
       <c r="G8" s="6"/>
       <c r="H8" s="3"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
       <c r="I9" s="3"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="4"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
